--- a/target/classes/main/java/com/qa/testdata/testData.xlsx
+++ b/target/classes/main/java/com/qa/testdata/testData.xlsx
@@ -175,7 +175,7 @@
     <t>validUsername</t>
   </si>
   <si>
-    <t>test123abc12s34s567890s112s@gmail.com</t>
+    <t>test123abc12s34s5s67890s112s@gmail.com</t>
   </si>
 </sst>
 </file>
